--- a/Base_Cangaceiros_Empresas.xlsx
+++ b/Base_Cangaceiros_Empresas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Área de Trabalho\Python\RN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleys\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32252C7-2BF0-4D06-8F8B-B311BAA8E2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB15C319-7BAA-4D6D-B649-81ABA284D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cangaceiros" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="113">
   <si>
     <t>Cangaceiro</t>
   </si>
@@ -293,13 +293,88 @@
     <t>Time e Cultura (atração e retenção de membros, formação de lideranças, engajamento do time, cultura organizacional)</t>
   </si>
   <si>
-    <t>Negocios e Gestão</t>
-  </si>
-  <si>
     <t>Pau dos Ferros</t>
   </si>
   <si>
-    <t>Caraubas</t>
+    <t>59mil</t>
+  </si>
+  <si>
+    <t>ACONT - ASSESSORIA E CONSULTORIA CONTÁBIL</t>
+  </si>
+  <si>
+    <t>Agro+ Assessoria e Consultoria Agrícola</t>
+  </si>
+  <si>
+    <t>ALPE Engenharia</t>
+  </si>
+  <si>
+    <t>ANIMUS Consultoria Jurídica</t>
+  </si>
+  <si>
+    <t>Apex Empreendedorismo e Soluções Jurídicas</t>
+  </si>
+  <si>
+    <t>Byte Seridó Júnior</t>
+  </si>
+  <si>
+    <t>Cápsula Júnior</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Conecta Solutions</t>
+  </si>
+  <si>
+    <t>CONSEJ - Consultoria Jurídica Júnior</t>
+  </si>
+  <si>
+    <t>Contabilize Jr. Soluções Contábeis</t>
+  </si>
+  <si>
+    <t>Econsul Consultoria Econômica</t>
+  </si>
+  <si>
+    <t>EJECT</t>
+  </si>
+  <si>
+    <t>Elysium Consultoria Odontológica</t>
+  </si>
+  <si>
+    <t>Enfasis Júnior</t>
+  </si>
+  <si>
+    <t>Holos Consultoria Jr</t>
+  </si>
+  <si>
+    <t>Honoris Consultoria Juridica Junior</t>
+  </si>
+  <si>
+    <t>Mechanics Consultoria &amp; Serviços</t>
+  </si>
+  <si>
+    <t>Nexum Consultoria Jurídica</t>
+  </si>
+  <si>
+    <t>Pilares Engenharia Júnior</t>
+  </si>
+  <si>
+    <t>Quatro Elementos</t>
+  </si>
+  <si>
+    <t>Sinergy Júnior Consultoria e Projetos</t>
+  </si>
+  <si>
+    <t>Síntesis Jr - Consultoria e Projetos em Engenharia Química</t>
+  </si>
+  <si>
+    <t>Solidus Júnior</t>
+  </si>
+  <si>
+    <t>Universitur</t>
+  </si>
+  <si>
+    <t>Caraúbas</t>
   </si>
 </sst>
 </file>
@@ -858,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA540315-6B57-40D0-A3A1-9A32A1D87ECF}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1953,17 +2028,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88D2F25-F7D8-40EF-B6CA-50CDC9F38ABD}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="108.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,10 +2061,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -2002,13 +2078,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
         <v>82</v>
@@ -2019,24 +2095,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -2045,7 +2121,7 @@
         <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -2053,47 +2129,47 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -2104,13 +2180,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
         <v>83</v>
@@ -2121,16 +2197,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -2138,7 +2214,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
@@ -2150,38 +2226,38 @@
         <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
         <v>83</v>
       </c>
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -2189,7 +2265,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -2198,7 +2274,7 @@
         <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -2206,10 +2282,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>82</v>
@@ -2218,24 +2294,463 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
         <v>83</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
